--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_09_税務処理基準の管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_09_税務処理基準の管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -959,7 +959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -2117,12 +2117,63 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E_本稼動_20102対応 直営店対応
+伊藤園フードサービスの収益認識部門入力用の税金コード9708、9710を追加</t>
+    <rPh sb="14" eb="19">
+      <t>チョクエイテンタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2757,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2932,20 +2983,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2955,21 +3101,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3007,94 +3138,26 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3105,20 +3168,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="3232" xfId="2"/>
@@ -3491,7 +3540,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10768,1245 +10817,1175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:AK16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="8" width="2.6640625" style="42" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="42" customWidth="1"/>
     <col min="10" max="16384" width="2.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="112"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="76"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="113">
+    <row r="3" spans="1:37">
+      <c r="A3" s="77">
         <v>44936</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="115"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="79"/>
     </row>
-    <row r="4" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="98">
+    <row r="4" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A4" s="84">
         <v>45351</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="100"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="86"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="107"/>
+    <row r="5" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A5" s="91">
+        <v>45485</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="93"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="97"/>
+    <row r="6" spans="1:37">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="100"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="79"/>
+    <row r="7" spans="1:37">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="109"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="79"/>
+    <row r="8" spans="1:37">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="109"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="88"/>
+    <row r="9" spans="1:37">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="118"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="79"/>
+    <row r="10" spans="1:37">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="109"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="73"/>
+    <row r="11" spans="1:37">
+      <c r="A11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="119"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="120"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="120"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="73"/>
+    <row r="13" spans="1:37">
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="120"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="73"/>
+    <row r="14" spans="1:37">
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="120"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="73"/>
+    <row r="15" spans="1:37">
+      <c r="A15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="119"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="120"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="73"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="120"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="73"/>
+    <row r="17" spans="1:37">
+      <c r="A17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="120"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="73"/>
+    <row r="18" spans="1:37">
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="120"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="73"/>
+    <row r="19" spans="1:37">
+      <c r="A19" s="104"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="120"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="73"/>
+    <row r="20" spans="1:37">
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="119"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="120"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="73"/>
+    <row r="21" spans="1:37">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="119"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="120"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="73"/>
+    <row r="22" spans="1:37">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="120"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="73"/>
+    <row r="23" spans="1:37">
+      <c r="A23" s="104"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="119"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="119"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="119"/>
+      <c r="AF23" s="119"/>
+      <c r="AG23" s="119"/>
+      <c r="AH23" s="119"/>
+      <c r="AI23" s="119"/>
+      <c r="AJ23" s="119"/>
+      <c r="AK23" s="120"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="73"/>
+    <row r="24" spans="1:37">
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="119"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="119"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="119"/>
+      <c r="AH24" s="119"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="119"/>
+      <c r="AK24" s="120"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="73"/>
+    <row r="25" spans="1:37">
+      <c r="A25" s="104"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="119"/>
+      <c r="AI25" s="119"/>
+      <c r="AJ25" s="119"/>
+      <c r="AK25" s="120"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="73"/>
+    <row r="26" spans="1:37">
+      <c r="A26" s="104"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="119"/>
+      <c r="AH26" s="119"/>
+      <c r="AI26" s="119"/>
+      <c r="AJ26" s="119"/>
+      <c r="AK26" s="120"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="73"/>
+    <row r="27" spans="1:37">
+      <c r="A27" s="104"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="119"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="119"/>
+      <c r="AF27" s="119"/>
+      <c r="AG27" s="119"/>
+      <c r="AH27" s="119"/>
+      <c r="AI27" s="119"/>
+      <c r="AJ27" s="119"/>
+      <c r="AK27" s="120"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="73"/>
+    <row r="28" spans="1:37">
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="119"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="119"/>
+      <c r="AF28" s="119"/>
+      <c r="AG28" s="119"/>
+      <c r="AH28" s="119"/>
+      <c r="AI28" s="119"/>
+      <c r="AJ28" s="119"/>
+      <c r="AK28" s="120"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="73"/>
+    <row r="29" spans="1:37">
+      <c r="A29" s="104"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="119"/>
+      <c r="AG29" s="119"/>
+      <c r="AH29" s="119"/>
+      <c r="AI29" s="119"/>
+      <c r="AJ29" s="119"/>
+      <c r="AK29" s="120"/>
     </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="68"/>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -12016,6 +11995,84 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12028,7 +12085,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="62" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="63" customWidth="1"/>
@@ -12036,32 +12093,32 @@
     <col min="6" max="16384" width="9.77734375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="123" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="125"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
+    <row r="1" spans="1:11" s="64" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="65" customFormat="1" ht="14.4">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="124" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="127" t="s">
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="18.600000000000001">
+      <c r="B3" s="68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="14.4">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
     </row>
-    <row r="5" spans="1:11" s="124" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="128" t="s">
+    <row r="5" spans="1:11" s="65" customFormat="1" ht="16.2">
+      <c r="B5" s="69" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="124" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
+    <row r="6" spans="1:11" s="65" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.4">
+      <c r="A7" s="65"/>
       <c r="B7" s="49" t="s">
         <v>200</v>
       </c>
@@ -12075,8 +12132,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="28.8">
+      <c r="A8" s="65"/>
       <c r="B8" s="53" t="s">
         <v>197</v>
       </c>
@@ -12090,43 +12147,43 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
+    <row r="9" spans="1:11" s="52" customFormat="1" thickBot="1">
+      <c r="A9" s="65"/>
       <c r="B9" s="56"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
     </row>
-    <row r="10" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:11" s="61" customFormat="1">
+      <c r="A10" s="70"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
     </row>
-    <row r="11" spans="1:11" s="124" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
+    <row r="11" spans="1:11" s="65" customFormat="1" ht="14.4">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
-    <row r="12" spans="1:11" s="124" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="128" t="s">
+    <row r="12" spans="1:11" s="65" customFormat="1" ht="16.2">
+      <c r="B12" s="69" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="B14" s="63" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="63" customFormat="1">
       <c r="A30" s="62"/>
       <c r="B30" s="63" t="s">
         <v>195</v>
@@ -12138,7 +12195,7 @@
       <c r="J30" s="62"/>
       <c r="K30" s="62"/>
     </row>
-    <row r="31" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="63" customFormat="1">
       <c r="A31" s="62"/>
       <c r="B31" s="63" t="s">
         <v>196</v>
@@ -12164,9 +12221,9 @@
   </sheetPr>
   <dimension ref="A1:CT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.109375" bestFit="1" customWidth="1"/>
@@ -12175,33 +12232,33 @@
     <col min="58" max="58" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:98" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" ht="30">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" ht="15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" ht="15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" ht="15">
       <c r="A6" s="9" t="s">
         <v>205</v>
       </c>
@@ -12209,7 +12266,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" ht="15">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -12218,383 +12275,383 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" ht="15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" ht="15">
       <c r="A9" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" ht="15">
       <c r="A10" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" ht="15">
       <c r="A11" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" ht="15">
       <c r="A12" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" ht="15">
       <c r="A13" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:98" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" ht="15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+    <row r="15" spans="1:98" ht="15">
+      <c r="A15" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="120" t="s">
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="121"/>
-      <c r="AY15" s="121"/>
-      <c r="AZ15" s="121"/>
-      <c r="BA15" s="122"/>
-      <c r="BB15" s="120" t="s">
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="127"/>
+      <c r="AK15" s="127"/>
+      <c r="AL15" s="127"/>
+      <c r="AM15" s="127"/>
+      <c r="AN15" s="127"/>
+      <c r="AO15" s="127"/>
+      <c r="AP15" s="127"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="127"/>
+      <c r="AS15" s="127"/>
+      <c r="AT15" s="127"/>
+      <c r="AU15" s="127"/>
+      <c r="AV15" s="127"/>
+      <c r="AW15" s="127"/>
+      <c r="AX15" s="127"/>
+      <c r="AY15" s="127"/>
+      <c r="AZ15" s="127"/>
+      <c r="BA15" s="128"/>
+      <c r="BB15" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="BC15" s="121"/>
-      <c r="BD15" s="121"/>
-      <c r="BE15" s="121"/>
-      <c r="BF15" s="121"/>
-      <c r="BG15" s="121"/>
-      <c r="BH15" s="121"/>
-      <c r="BI15" s="121"/>
-      <c r="BJ15" s="121"/>
-      <c r="BK15" s="121"/>
-      <c r="BL15" s="121"/>
-      <c r="BM15" s="121"/>
-      <c r="BN15" s="121"/>
-      <c r="BO15" s="121"/>
-      <c r="BP15" s="121"/>
-      <c r="BQ15" s="121"/>
-      <c r="BR15" s="121"/>
-      <c r="BS15" s="121"/>
-      <c r="BT15" s="121"/>
-      <c r="BU15" s="121"/>
-      <c r="BV15" s="121"/>
-      <c r="BW15" s="121"/>
-      <c r="BX15" s="121"/>
-      <c r="BY15" s="121"/>
-      <c r="BZ15" s="121"/>
-      <c r="CA15" s="121"/>
-      <c r="CB15" s="121"/>
-      <c r="CC15" s="121"/>
-      <c r="CD15" s="121"/>
-      <c r="CE15" s="121"/>
-      <c r="CF15" s="121"/>
-      <c r="CG15" s="121"/>
-      <c r="CH15" s="121"/>
-      <c r="CI15" s="121"/>
-      <c r="CJ15" s="121"/>
-      <c r="CK15" s="121"/>
-      <c r="CL15" s="121"/>
-      <c r="CM15" s="121"/>
-      <c r="CN15" s="121"/>
-      <c r="CO15" s="121"/>
-      <c r="CP15" s="121"/>
-      <c r="CQ15" s="121"/>
-      <c r="CR15" s="121"/>
-      <c r="CS15" s="121"/>
-      <c r="CT15" s="122"/>
+      <c r="BC15" s="127"/>
+      <c r="BD15" s="127"/>
+      <c r="BE15" s="127"/>
+      <c r="BF15" s="127"/>
+      <c r="BG15" s="127"/>
+      <c r="BH15" s="127"/>
+      <c r="BI15" s="127"/>
+      <c r="BJ15" s="127"/>
+      <c r="BK15" s="127"/>
+      <c r="BL15" s="127"/>
+      <c r="BM15" s="127"/>
+      <c r="BN15" s="127"/>
+      <c r="BO15" s="127"/>
+      <c r="BP15" s="127"/>
+      <c r="BQ15" s="127"/>
+      <c r="BR15" s="127"/>
+      <c r="BS15" s="127"/>
+      <c r="BT15" s="127"/>
+      <c r="BU15" s="127"/>
+      <c r="BV15" s="127"/>
+      <c r="BW15" s="127"/>
+      <c r="BX15" s="127"/>
+      <c r="BY15" s="127"/>
+      <c r="BZ15" s="127"/>
+      <c r="CA15" s="127"/>
+      <c r="CB15" s="127"/>
+      <c r="CC15" s="127"/>
+      <c r="CD15" s="127"/>
+      <c r="CE15" s="127"/>
+      <c r="CF15" s="127"/>
+      <c r="CG15" s="127"/>
+      <c r="CH15" s="127"/>
+      <c r="CI15" s="127"/>
+      <c r="CJ15" s="127"/>
+      <c r="CK15" s="127"/>
+      <c r="CL15" s="127"/>
+      <c r="CM15" s="127"/>
+      <c r="CN15" s="127"/>
+      <c r="CO15" s="127"/>
+      <c r="CP15" s="127"/>
+      <c r="CQ15" s="127"/>
+      <c r="CR15" s="127"/>
+      <c r="CS15" s="127"/>
+      <c r="CT15" s="128"/>
     </row>
-    <row r="16" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+    <row r="16" spans="1:98" ht="15">
+      <c r="A16" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="120" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="120" t="s">
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="120" t="s">
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="122"/>
-      <c r="BB16" s="120" t="s">
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="127"/>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="127"/>
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="127"/>
+      <c r="AP16" s="127"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="128"/>
+      <c r="BB16" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="BC16" s="121"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
-      <c r="BG16" s="121"/>
-      <c r="BH16" s="121"/>
-      <c r="BI16" s="121"/>
-      <c r="BJ16" s="121"/>
-      <c r="BK16" s="121"/>
-      <c r="BL16" s="121"/>
-      <c r="BM16" s="121"/>
-      <c r="BN16" s="121"/>
-      <c r="BO16" s="121"/>
-      <c r="BP16" s="121"/>
-      <c r="BQ16" s="121"/>
-      <c r="BR16" s="122"/>
-      <c r="BS16" s="120" t="s">
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
+      <c r="BI16" s="127"/>
+      <c r="BJ16" s="127"/>
+      <c r="BK16" s="127"/>
+      <c r="BL16" s="127"/>
+      <c r="BM16" s="127"/>
+      <c r="BN16" s="127"/>
+      <c r="BO16" s="127"/>
+      <c r="BP16" s="127"/>
+      <c r="BQ16" s="127"/>
+      <c r="BR16" s="128"/>
+      <c r="BS16" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="BT16" s="121"/>
-      <c r="BU16" s="121"/>
-      <c r="BV16" s="121"/>
-      <c r="BW16" s="121"/>
-      <c r="BX16" s="121"/>
-      <c r="BY16" s="121"/>
-      <c r="BZ16" s="121"/>
-      <c r="CA16" s="121"/>
-      <c r="CB16" s="121"/>
-      <c r="CC16" s="121"/>
-      <c r="CD16" s="121"/>
-      <c r="CE16" s="121"/>
-      <c r="CF16" s="121"/>
-      <c r="CG16" s="121"/>
-      <c r="CH16" s="121"/>
-      <c r="CI16" s="121"/>
-      <c r="CJ16" s="121"/>
-      <c r="CK16" s="121"/>
-      <c r="CL16" s="121"/>
-      <c r="CM16" s="121"/>
-      <c r="CN16" s="121"/>
-      <c r="CO16" s="121"/>
-      <c r="CP16" s="121"/>
-      <c r="CQ16" s="121"/>
-      <c r="CR16" s="121"/>
-      <c r="CS16" s="121"/>
-      <c r="CT16" s="122"/>
+      <c r="BT16" s="127"/>
+      <c r="BU16" s="127"/>
+      <c r="BV16" s="127"/>
+      <c r="BW16" s="127"/>
+      <c r="BX16" s="127"/>
+      <c r="BY16" s="127"/>
+      <c r="BZ16" s="127"/>
+      <c r="CA16" s="127"/>
+      <c r="CB16" s="127"/>
+      <c r="CC16" s="127"/>
+      <c r="CD16" s="127"/>
+      <c r="CE16" s="127"/>
+      <c r="CF16" s="127"/>
+      <c r="CG16" s="127"/>
+      <c r="CH16" s="127"/>
+      <c r="CI16" s="127"/>
+      <c r="CJ16" s="127"/>
+      <c r="CK16" s="127"/>
+      <c r="CL16" s="127"/>
+      <c r="CM16" s="127"/>
+      <c r="CN16" s="127"/>
+      <c r="CO16" s="127"/>
+      <c r="CP16" s="127"/>
+      <c r="CQ16" s="127"/>
+      <c r="CR16" s="127"/>
+      <c r="CS16" s="127"/>
+      <c r="CT16" s="128"/>
     </row>
-    <row r="17" spans="1:98" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
+    <row r="17" spans="1:98" s="11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A17" s="126"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="120" t="s">
+      <c r="L17" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="120" t="s">
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="121"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="120" t="s">
+      <c r="S17" s="127"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="120" t="s">
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="120" t="s">
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="122"/>
-      <c r="AU17" s="120" t="s">
+      <c r="AO17" s="127"/>
+      <c r="AP17" s="127"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="128"/>
+      <c r="AU17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="121"/>
-      <c r="BA17" s="122"/>
-      <c r="BB17" s="120"/>
-      <c r="BC17" s="121"/>
-      <c r="BD17" s="121"/>
-      <c r="BE17" s="121"/>
-      <c r="BF17" s="121"/>
-      <c r="BG17" s="121"/>
-      <c r="BH17" s="121"/>
-      <c r="BI17" s="121"/>
-      <c r="BJ17" s="121"/>
-      <c r="BK17" s="121"/>
-      <c r="BL17" s="121"/>
-      <c r="BM17" s="121"/>
-      <c r="BN17" s="121"/>
-      <c r="BO17" s="121"/>
-      <c r="BP17" s="121"/>
-      <c r="BQ17" s="121"/>
-      <c r="BR17" s="122"/>
-      <c r="BS17" s="120"/>
-      <c r="BT17" s="121"/>
-      <c r="BU17" s="121"/>
-      <c r="BV17" s="121"/>
-      <c r="BW17" s="121"/>
-      <c r="BX17" s="121"/>
-      <c r="BY17" s="122"/>
-      <c r="BZ17" s="120" t="s">
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="128"/>
+      <c r="BB17" s="126"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="127"/>
+      <c r="BL17" s="127"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="127"/>
+      <c r="BO17" s="127"/>
+      <c r="BP17" s="127"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="128"/>
+      <c r="BS17" s="126"/>
+      <c r="BT17" s="127"/>
+      <c r="BU17" s="127"/>
+      <c r="BV17" s="127"/>
+      <c r="BW17" s="127"/>
+      <c r="BX17" s="127"/>
+      <c r="BY17" s="128"/>
+      <c r="BZ17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="CA17" s="121"/>
-      <c r="CB17" s="121"/>
-      <c r="CC17" s="121"/>
-      <c r="CD17" s="121"/>
-      <c r="CE17" s="121"/>
-      <c r="CF17" s="122"/>
-      <c r="CG17" s="120" t="s">
+      <c r="CA17" s="127"/>
+      <c r="CB17" s="127"/>
+      <c r="CC17" s="127"/>
+      <c r="CD17" s="127"/>
+      <c r="CE17" s="127"/>
+      <c r="CF17" s="128"/>
+      <c r="CG17" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="CH17" s="121"/>
-      <c r="CI17" s="121"/>
-      <c r="CJ17" s="121"/>
-      <c r="CK17" s="121"/>
-      <c r="CL17" s="121"/>
-      <c r="CM17" s="122"/>
-      <c r="CN17" s="120" t="s">
+      <c r="CH17" s="127"/>
+      <c r="CI17" s="127"/>
+      <c r="CJ17" s="127"/>
+      <c r="CK17" s="127"/>
+      <c r="CL17" s="127"/>
+      <c r="CM17" s="128"/>
+      <c r="CN17" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="CO17" s="121"/>
-      <c r="CP17" s="121"/>
-      <c r="CQ17" s="121"/>
-      <c r="CR17" s="121"/>
-      <c r="CS17" s="121"/>
-      <c r="CT17" s="122"/>
+      <c r="CO17" s="127"/>
+      <c r="CP17" s="127"/>
+      <c r="CQ17" s="127"/>
+      <c r="CR17" s="127"/>
+      <c r="CS17" s="127"/>
+      <c r="CT17" s="128"/>
     </row>
-    <row r="18" spans="1:98" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:98" s="15" customFormat="1" ht="15">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -12890,7 +12947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A19" s="16" t="s">
         <v>81</v>
       </c>
@@ -13068,7 +13125,7 @@
       <c r="CS19" s="17"/>
       <c r="CT19" s="17"/>
     </row>
-    <row r="20" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -13206,7 +13263,7 @@
       <c r="CS20" s="17"/>
       <c r="CT20" s="17"/>
     </row>
-    <row r="21" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -13344,7 +13401,7 @@
       <c r="CS21" s="17"/>
       <c r="CT21" s="17"/>
     </row>
-    <row r="22" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -13482,7 +13539,7 @@
       <c r="CS22" s="17"/>
       <c r="CT22" s="17"/>
     </row>
-    <row r="23" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -13620,7 +13677,7 @@
       <c r="CS23" s="17"/>
       <c r="CT23" s="17"/>
     </row>
-    <row r="24" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -13758,7 +13815,7 @@
       <c r="CS24" s="17"/>
       <c r="CT24" s="17"/>
     </row>
-    <row r="25" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -13896,7 +13953,7 @@
       <c r="CS25" s="17"/>
       <c r="CT25" s="17"/>
     </row>
-    <row r="26" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -14034,7 +14091,7 @@
       <c r="CS26" s="17"/>
       <c r="CT26" s="17"/>
     </row>
-    <row r="27" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -14172,7 +14229,7 @@
       <c r="CS27" s="17"/>
       <c r="CT27" s="17"/>
     </row>
-    <row r="28" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -14310,7 +14367,7 @@
       <c r="CS28" s="17"/>
       <c r="CT28" s="17"/>
     </row>
-    <row r="29" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -14448,7 +14505,7 @@
       <c r="CS29" s="17"/>
       <c r="CT29" s="17"/>
     </row>
-    <row r="30" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -14586,7 +14643,7 @@
       <c r="CS30" s="17"/>
       <c r="CT30" s="17"/>
     </row>
-    <row r="31" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -14724,7 +14781,7 @@
       <c r="CS31" s="17"/>
       <c r="CT31" s="17"/>
     </row>
-    <row r="32" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -14862,7 +14919,7 @@
       <c r="CS32" s="17"/>
       <c r="CT32" s="17"/>
     </row>
-    <row r="33" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -15000,7 +15057,7 @@
       <c r="CS33" s="17"/>
       <c r="CT33" s="17"/>
     </row>
-    <row r="34" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -15138,7 +15195,7 @@
       <c r="CS34" s="17"/>
       <c r="CT34" s="17"/>
     </row>
-    <row r="35" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -15276,7 +15333,7 @@
       <c r="CS35" s="17"/>
       <c r="CT35" s="17"/>
     </row>
-    <row r="36" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -15414,7 +15471,7 @@
       <c r="CS36" s="17"/>
       <c r="CT36" s="17"/>
     </row>
-    <row r="37" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -15552,7 +15609,7 @@
       <c r="CS37" s="17"/>
       <c r="CT37" s="17"/>
     </row>
-    <row r="38" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -15690,7 +15747,7 @@
       <c r="CS38" s="17"/>
       <c r="CT38" s="17"/>
     </row>
-    <row r="39" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -15828,7 +15885,7 @@
       <c r="CS39" s="17"/>
       <c r="CT39" s="17"/>
     </row>
-    <row r="40" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -15966,7 +16023,7 @@
       <c r="CS40" s="17"/>
       <c r="CT40" s="17"/>
     </row>
-    <row r="41" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -16104,7 +16161,7 @@
       <c r="CS41" s="17"/>
       <c r="CT41" s="17"/>
     </row>
-    <row r="42" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -16242,7 +16299,7 @@
       <c r="CS42" s="17"/>
       <c r="CT42" s="17"/>
     </row>
-    <row r="43" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -16267,120 +16324,120 @@
       <c r="V43" s="29"/>
       <c r="W43" s="29"/>
       <c r="X43" s="29"/>
-      <c r="Y43" s="43" t="s">
+      <c r="Y43" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="Z43" s="43" t="s">
+      <c r="Z43" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AA43" s="44">
+      <c r="AA43" s="23">
         <v>25</v>
       </c>
-      <c r="AB43" s="44">
+      <c r="AB43" s="23">
         <v>25</v>
       </c>
-      <c r="AC43" s="45" t="s">
+      <c r="AC43" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44" t="s">
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="AG43" s="44" t="s">
+      <c r="AG43" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44" t="s">
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AJ43" s="44" t="s">
+      <c r="AJ43" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AK43" s="45" t="s">
+      <c r="AK43" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
-      <c r="AU43" s="44"/>
-      <c r="AV43" s="44"/>
-      <c r="AW43" s="44"/>
-      <c r="AX43" s="44"/>
-      <c r="AY43" s="44"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="44"/>
-      <c r="BB43" s="46"/>
-      <c r="BC43" s="46"/>
-      <c r="BD43" s="46"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="46"/>
-      <c r="BG43" s="46"/>
-      <c r="BH43" s="46"/>
-      <c r="BI43" s="47"/>
-      <c r="BJ43" s="47"/>
-      <c r="BK43" s="46"/>
-      <c r="BL43" s="46"/>
-      <c r="BM43" s="46"/>
-      <c r="BN43" s="46"/>
-      <c r="BO43" s="46"/>
-      <c r="BP43" s="46"/>
-      <c r="BQ43" s="46"/>
-      <c r="BR43" s="46"/>
-      <c r="BS43" s="43" t="s">
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="23"/>
+      <c r="AY43" s="23"/>
+      <c r="AZ43" s="23"/>
+      <c r="BA43" s="23"/>
+      <c r="BB43" s="29"/>
+      <c r="BC43" s="29"/>
+      <c r="BD43" s="29"/>
+      <c r="BE43" s="29"/>
+      <c r="BF43" s="29"/>
+      <c r="BG43" s="29"/>
+      <c r="BH43" s="29"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="29"/>
+      <c r="BL43" s="29"/>
+      <c r="BM43" s="29"/>
+      <c r="BN43" s="29"/>
+      <c r="BO43" s="29"/>
+      <c r="BP43" s="29"/>
+      <c r="BQ43" s="29"/>
+      <c r="BR43" s="29"/>
+      <c r="BS43" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="BT43" s="43" t="s">
+      <c r="BT43" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="BU43" s="48">
+      <c r="BU43" s="17">
         <v>25</v>
       </c>
-      <c r="BV43" s="45" t="s">
+      <c r="BV43" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BW43" s="48"/>
-      <c r="BX43" s="48"/>
-      <c r="BY43" s="44" t="s">
+      <c r="BW43" s="17"/>
+      <c r="BX43" s="17"/>
+      <c r="BY43" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="BZ43" s="44" t="s">
+      <c r="BZ43" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="CA43" s="44"/>
-      <c r="CB43" s="44" t="s">
+      <c r="CA43" s="23"/>
+      <c r="CB43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="CC43" s="44" t="s">
+      <c r="CC43" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="CD43" s="45" t="s">
+      <c r="CD43" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="CE43" s="48"/>
-      <c r="CF43" s="48"/>
-      <c r="CG43" s="48"/>
-      <c r="CH43" s="48"/>
-      <c r="CI43" s="48"/>
-      <c r="CJ43" s="48"/>
-      <c r="CK43" s="48"/>
-      <c r="CL43" s="48"/>
-      <c r="CM43" s="48"/>
-      <c r="CN43" s="48"/>
-      <c r="CO43" s="48"/>
-      <c r="CP43" s="48"/>
-      <c r="CQ43" s="48"/>
-      <c r="CR43" s="48"/>
-      <c r="CS43" s="48"/>
-      <c r="CT43" s="48"/>
+      <c r="CE43" s="17"/>
+      <c r="CF43" s="17"/>
+      <c r="CG43" s="17"/>
+      <c r="CH43" s="17"/>
+      <c r="CI43" s="17"/>
+      <c r="CJ43" s="17"/>
+      <c r="CK43" s="17"/>
+      <c r="CL43" s="17"/>
+      <c r="CM43" s="17"/>
+      <c r="CN43" s="17"/>
+      <c r="CO43" s="17"/>
+      <c r="CP43" s="17"/>
+      <c r="CQ43" s="17"/>
+      <c r="CR43" s="17"/>
+      <c r="CS43" s="17"/>
+      <c r="CT43" s="17"/>
     </row>
-    <row r="44" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -16405,120 +16462,120 @@
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
       <c r="X44" s="29"/>
-      <c r="Y44" s="43" t="s">
+      <c r="Y44" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="Z44" s="43" t="s">
+      <c r="Z44" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="AA44" s="44">
+      <c r="AA44" s="23">
         <v>26</v>
       </c>
-      <c r="AB44" s="44">
+      <c r="AB44" s="23">
         <v>26</v>
       </c>
-      <c r="AC44" s="45" t="s">
+      <c r="AC44" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44" t="s">
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AG44" s="44" t="s">
+      <c r="AG44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="44" t="s">
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AJ44" s="44" t="s">
+      <c r="AJ44" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AK44" s="45" t="s">
+      <c r="AK44" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="44"/>
-      <c r="AN44" s="44"/>
-      <c r="AO44" s="44"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44"/>
-      <c r="AR44" s="44"/>
-      <c r="AS44" s="44"/>
-      <c r="AT44" s="44"/>
-      <c r="AU44" s="44"/>
-      <c r="AV44" s="44"/>
-      <c r="AW44" s="44"/>
-      <c r="AX44" s="44"/>
-      <c r="AY44" s="44"/>
-      <c r="AZ44" s="44"/>
-      <c r="BA44" s="44"/>
-      <c r="BB44" s="46"/>
-      <c r="BC44" s="46"/>
-      <c r="BD44" s="46"/>
-      <c r="BE44" s="46"/>
-      <c r="BF44" s="46"/>
-      <c r="BG44" s="46"/>
-      <c r="BH44" s="46"/>
-      <c r="BI44" s="47"/>
-      <c r="BJ44" s="47"/>
-      <c r="BK44" s="46"/>
-      <c r="BL44" s="46"/>
-      <c r="BM44" s="46"/>
-      <c r="BN44" s="46"/>
-      <c r="BO44" s="46"/>
-      <c r="BP44" s="46"/>
-      <c r="BQ44" s="46"/>
-      <c r="BR44" s="46"/>
-      <c r="BS44" s="43" t="s">
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="23"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="23"/>
+      <c r="AW44" s="23"/>
+      <c r="AX44" s="23"/>
+      <c r="AY44" s="23"/>
+      <c r="AZ44" s="23"/>
+      <c r="BA44" s="23"/>
+      <c r="BB44" s="29"/>
+      <c r="BC44" s="29"/>
+      <c r="BD44" s="29"/>
+      <c r="BE44" s="29"/>
+      <c r="BF44" s="29"/>
+      <c r="BG44" s="29"/>
+      <c r="BH44" s="29"/>
+      <c r="BI44" s="30"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="29"/>
+      <c r="BL44" s="29"/>
+      <c r="BM44" s="29"/>
+      <c r="BN44" s="29"/>
+      <c r="BO44" s="29"/>
+      <c r="BP44" s="29"/>
+      <c r="BQ44" s="29"/>
+      <c r="BR44" s="29"/>
+      <c r="BS44" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="BT44" s="43" t="s">
+      <c r="BT44" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="BU44" s="48">
+      <c r="BU44" s="17">
         <v>26</v>
       </c>
-      <c r="BV44" s="45" t="s">
+      <c r="BV44" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="BW44" s="48"/>
-      <c r="BX44" s="48"/>
-      <c r="BY44" s="44" t="s">
+      <c r="BW44" s="17"/>
+      <c r="BX44" s="17"/>
+      <c r="BY44" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="BZ44" s="44" t="s">
+      <c r="BZ44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="CA44" s="44"/>
-      <c r="CB44" s="44" t="s">
+      <c r="CA44" s="23"/>
+      <c r="CB44" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="CC44" s="44" t="s">
+      <c r="CC44" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="CD44" s="45" t="s">
+      <c r="CD44" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="CE44" s="48"/>
-      <c r="CF44" s="48"/>
-      <c r="CG44" s="48"/>
-      <c r="CH44" s="48"/>
-      <c r="CI44" s="48"/>
-      <c r="CJ44" s="48"/>
-      <c r="CK44" s="48"/>
-      <c r="CL44" s="48"/>
-      <c r="CM44" s="48"/>
-      <c r="CN44" s="48"/>
-      <c r="CO44" s="48"/>
-      <c r="CP44" s="48"/>
-      <c r="CQ44" s="48"/>
-      <c r="CR44" s="48"/>
-      <c r="CS44" s="48"/>
-      <c r="CT44" s="48"/>
+      <c r="CE44" s="17"/>
+      <c r="CF44" s="17"/>
+      <c r="CG44" s="17"/>
+      <c r="CH44" s="17"/>
+      <c r="CI44" s="17"/>
+      <c r="CJ44" s="17"/>
+      <c r="CK44" s="17"/>
+      <c r="CL44" s="17"/>
+      <c r="CM44" s="17"/>
+      <c r="CN44" s="17"/>
+      <c r="CO44" s="17"/>
+      <c r="CP44" s="17"/>
+      <c r="CQ44" s="17"/>
+      <c r="CR44" s="17"/>
+      <c r="CS44" s="17"/>
+      <c r="CT44" s="17"/>
     </row>
-    <row r="45" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -16543,82 +16600,120 @@
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
       <c r="X45" s="29"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="23"/>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="23"/>
-      <c r="AW45" s="23"/>
-      <c r="AX45" s="23"/>
-      <c r="AY45" s="23"/>
-      <c r="AZ45" s="23"/>
-      <c r="BA45" s="23"/>
-      <c r="BB45" s="29"/>
-      <c r="BC45" s="29"/>
-      <c r="BD45" s="29"/>
-      <c r="BE45" s="29"/>
-      <c r="BF45" s="29"/>
-      <c r="BG45" s="29"/>
-      <c r="BH45" s="29"/>
-      <c r="BI45" s="30"/>
-      <c r="BJ45" s="30"/>
-      <c r="BK45" s="29"/>
-      <c r="BL45" s="29"/>
-      <c r="BM45" s="29"/>
-      <c r="BN45" s="29"/>
-      <c r="BO45" s="29"/>
-      <c r="BP45" s="29"/>
-      <c r="BQ45" s="29"/>
-      <c r="BR45" s="29"/>
-      <c r="BS45" s="22"/>
-      <c r="BT45" s="22"/>
-      <c r="BU45" s="17"/>
-      <c r="BV45" s="36"/>
-      <c r="BW45" s="17"/>
-      <c r="BX45" s="17"/>
-      <c r="BY45" s="17"/>
-      <c r="BZ45" s="17"/>
-      <c r="CA45" s="17"/>
-      <c r="CB45" s="17"/>
-      <c r="CC45" s="17"/>
-      <c r="CD45" s="36"/>
-      <c r="CE45" s="17"/>
-      <c r="CF45" s="17"/>
-      <c r="CG45" s="17"/>
-      <c r="CH45" s="17"/>
-      <c r="CI45" s="17"/>
-      <c r="CJ45" s="17"/>
-      <c r="CK45" s="17"/>
-      <c r="CL45" s="17"/>
-      <c r="CM45" s="17"/>
-      <c r="CN45" s="17"/>
-      <c r="CO45" s="17"/>
-      <c r="CP45" s="17"/>
-      <c r="CQ45" s="17"/>
-      <c r="CR45" s="17"/>
-      <c r="CS45" s="17"/>
-      <c r="CT45" s="17"/>
+      <c r="Y45" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z45" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA45" s="44">
+        <v>27</v>
+      </c>
+      <c r="AB45" s="44">
+        <v>27</v>
+      </c>
+      <c r="AC45" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG45" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ45" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK45" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44"/>
+      <c r="AU45" s="44"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+      <c r="BB45" s="46"/>
+      <c r="BC45" s="46"/>
+      <c r="BD45" s="46"/>
+      <c r="BE45" s="46"/>
+      <c r="BF45" s="46"/>
+      <c r="BG45" s="46"/>
+      <c r="BH45" s="46"/>
+      <c r="BI45" s="47"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="46"/>
+      <c r="BL45" s="46"/>
+      <c r="BM45" s="46"/>
+      <c r="BN45" s="46"/>
+      <c r="BO45" s="46"/>
+      <c r="BP45" s="46"/>
+      <c r="BQ45" s="46"/>
+      <c r="BR45" s="46"/>
+      <c r="BS45" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT45" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU45" s="48">
+        <v>27</v>
+      </c>
+      <c r="BV45" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW45" s="48"/>
+      <c r="BX45" s="48"/>
+      <c r="BY45" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ45" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA45" s="44"/>
+      <c r="CB45" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC45" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD45" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="CE45" s="48"/>
+      <c r="CF45" s="48"/>
+      <c r="CG45" s="48"/>
+      <c r="CH45" s="48"/>
+      <c r="CI45" s="48"/>
+      <c r="CJ45" s="48"/>
+      <c r="CK45" s="48"/>
+      <c r="CL45" s="48"/>
+      <c r="CM45" s="48"/>
+      <c r="CN45" s="48"/>
+      <c r="CO45" s="48"/>
+      <c r="CP45" s="48"/>
+      <c r="CQ45" s="48"/>
+      <c r="CR45" s="48"/>
+      <c r="CS45" s="48"/>
+      <c r="CT45" s="48"/>
     </row>
-    <row r="46" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -16643,82 +16738,120 @@
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
       <c r="X46" s="29"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="23"/>
-      <c r="AG46" s="23"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
-      <c r="AV46" s="23"/>
-      <c r="AW46" s="23"/>
-      <c r="AX46" s="23"/>
-      <c r="AY46" s="23"/>
-      <c r="AZ46" s="23"/>
-      <c r="BA46" s="23"/>
-      <c r="BB46" s="29"/>
-      <c r="BC46" s="29"/>
-      <c r="BD46" s="29"/>
-      <c r="BE46" s="29"/>
-      <c r="BF46" s="29"/>
-      <c r="BG46" s="29"/>
-      <c r="BH46" s="29"/>
-      <c r="BI46" s="30"/>
-      <c r="BJ46" s="30"/>
-      <c r="BK46" s="29"/>
-      <c r="BL46" s="29"/>
-      <c r="BM46" s="29"/>
-      <c r="BN46" s="29"/>
-      <c r="BO46" s="29"/>
-      <c r="BP46" s="29"/>
-      <c r="BQ46" s="29"/>
-      <c r="BR46" s="29"/>
-      <c r="BS46" s="22"/>
-      <c r="BT46" s="22"/>
-      <c r="BU46" s="17"/>
-      <c r="BV46" s="36"/>
-      <c r="BW46" s="17"/>
-      <c r="BX46" s="17"/>
-      <c r="BY46" s="17"/>
-      <c r="BZ46" s="17"/>
-      <c r="CA46" s="17"/>
-      <c r="CB46" s="17"/>
-      <c r="CC46" s="17"/>
-      <c r="CD46" s="36"/>
-      <c r="CE46" s="17"/>
-      <c r="CF46" s="17"/>
-      <c r="CG46" s="17"/>
-      <c r="CH46" s="17"/>
-      <c r="CI46" s="17"/>
-      <c r="CJ46" s="17"/>
-      <c r="CK46" s="17"/>
-      <c r="CL46" s="17"/>
-      <c r="CM46" s="17"/>
-      <c r="CN46" s="17"/>
-      <c r="CO46" s="17"/>
-      <c r="CP46" s="17"/>
-      <c r="CQ46" s="17"/>
-      <c r="CR46" s="17"/>
-      <c r="CS46" s="17"/>
-      <c r="CT46" s="17"/>
+      <c r="Y46" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z46" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA46" s="44">
+        <v>28</v>
+      </c>
+      <c r="AB46" s="44">
+        <v>28</v>
+      </c>
+      <c r="AC46" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG46" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ46" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK46" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="46"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
+      <c r="BE46" s="46"/>
+      <c r="BF46" s="46"/>
+      <c r="BG46" s="46"/>
+      <c r="BH46" s="46"/>
+      <c r="BI46" s="47"/>
+      <c r="BJ46" s="47"/>
+      <c r="BK46" s="46"/>
+      <c r="BL46" s="46"/>
+      <c r="BM46" s="46"/>
+      <c r="BN46" s="46"/>
+      <c r="BO46" s="46"/>
+      <c r="BP46" s="46"/>
+      <c r="BQ46" s="46"/>
+      <c r="BR46" s="46"/>
+      <c r="BS46" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="BT46" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU46" s="48">
+        <v>28</v>
+      </c>
+      <c r="BV46" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW46" s="48"/>
+      <c r="BX46" s="48"/>
+      <c r="BY46" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ46" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA46" s="44"/>
+      <c r="CB46" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC46" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD46" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE46" s="48"/>
+      <c r="CF46" s="48"/>
+      <c r="CG46" s="48"/>
+      <c r="CH46" s="48"/>
+      <c r="CI46" s="48"/>
+      <c r="CJ46" s="48"/>
+      <c r="CK46" s="48"/>
+      <c r="CL46" s="48"/>
+      <c r="CM46" s="48"/>
+      <c r="CN46" s="48"/>
+      <c r="CO46" s="48"/>
+      <c r="CP46" s="48"/>
+      <c r="CQ46" s="48"/>
+      <c r="CR46" s="48"/>
+      <c r="CS46" s="48"/>
+      <c r="CT46" s="48"/>
     </row>
-    <row r="47" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -16818,7 +16951,7 @@
       <c r="CS47" s="17"/>
       <c r="CT47" s="17"/>
     </row>
-    <row r="48" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -16918,7 +17051,7 @@
       <c r="CS48" s="17"/>
       <c r="CT48" s="17"/>
     </row>
-    <row r="49" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -17018,7 +17151,7 @@
       <c r="CS49" s="17"/>
       <c r="CT49" s="17"/>
     </row>
-    <row r="50" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -17118,7 +17251,7 @@
       <c r="CS50" s="23"/>
       <c r="CT50" s="23"/>
     </row>
-    <row r="51" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="30"/>
@@ -17217,7 +17350,7 @@
       <c r="CS51" s="23"/>
       <c r="CT51" s="23"/>
     </row>
-    <row r="52" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -17317,7 +17450,7 @@
       <c r="CS52" s="23"/>
       <c r="CT52" s="23"/>
     </row>
-    <row r="53" spans="1:98" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:98" s="28" customFormat="1" ht="15">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -17417,13 +17550,19 @@
       <c r="CS53" s="23"/>
       <c r="CT53" s="23"/>
     </row>
-    <row r="55" spans="1:98" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="130" t="s">
+    <row r="55" spans="1:98" ht="15">
+      <c r="A55" s="71" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="CG17:CM17"/>
+    <mergeCell ref="AN17:AT17"/>
+    <mergeCell ref="AU17:BA17"/>
+    <mergeCell ref="BB17:BR17"/>
+    <mergeCell ref="BS17:BY17"/>
+    <mergeCell ref="BZ17:CF17"/>
     <mergeCell ref="AG17:AM17"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:BA15"/>
@@ -17440,12 +17579,6 @@
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="Y17:AF17"/>
     <mergeCell ref="CN17:CT17"/>
-    <mergeCell ref="CG17:CM17"/>
-    <mergeCell ref="AN17:AT17"/>
-    <mergeCell ref="AU17:BA17"/>
-    <mergeCell ref="BB17:BR17"/>
-    <mergeCell ref="BS17:BY17"/>
-    <mergeCell ref="BZ17:CF17"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
